--- a/College Data.xlsx
+++ b/College Data.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Ranking methods" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="244">
   <si>
     <t>Applicants</t>
   </si>
@@ -739,6 +740,18 @@
   </si>
   <si>
     <t>Temple University</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>\-rank</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>6/x</t>
   </si>
 </sst>
 </file>
@@ -797,10 +810,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,11 +1158,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BS2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX4" sqref="AX4"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:CH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18267,4 +18283,895 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CG4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AQ20" sqref="AQ20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="28" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="6" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+      <c r="V2">
+        <v>21</v>
+      </c>
+      <c r="W2">
+        <v>22</v>
+      </c>
+      <c r="X2">
+        <v>23</v>
+      </c>
+      <c r="Y2">
+        <v>24</v>
+      </c>
+      <c r="Z2">
+        <v>25</v>
+      </c>
+      <c r="AA2">
+        <v>26</v>
+      </c>
+      <c r="AB2">
+        <v>27</v>
+      </c>
+      <c r="AC2">
+        <v>28</v>
+      </c>
+      <c r="AD2">
+        <v>29</v>
+      </c>
+      <c r="AE2">
+        <v>30</v>
+      </c>
+      <c r="AF2">
+        <v>31</v>
+      </c>
+      <c r="AG2">
+        <v>32</v>
+      </c>
+      <c r="AH2">
+        <v>33</v>
+      </c>
+      <c r="AI2">
+        <v>34</v>
+      </c>
+      <c r="AJ2">
+        <v>35</v>
+      </c>
+      <c r="AK2">
+        <v>36</v>
+      </c>
+      <c r="AL2">
+        <v>37</v>
+      </c>
+      <c r="AM2">
+        <v>38</v>
+      </c>
+      <c r="AN2">
+        <v>39</v>
+      </c>
+      <c r="AO2">
+        <v>40</v>
+      </c>
+      <c r="AP2">
+        <v>41</v>
+      </c>
+      <c r="AQ2">
+        <v>42</v>
+      </c>
+      <c r="AR2">
+        <v>43</v>
+      </c>
+      <c r="AS2">
+        <v>44</v>
+      </c>
+      <c r="AT2">
+        <v>45</v>
+      </c>
+      <c r="AU2">
+        <v>46</v>
+      </c>
+      <c r="AV2">
+        <v>47</v>
+      </c>
+      <c r="AW2">
+        <v>48</v>
+      </c>
+      <c r="AX2">
+        <v>49</v>
+      </c>
+      <c r="AY2">
+        <v>50</v>
+      </c>
+      <c r="AZ2">
+        <v>51</v>
+      </c>
+      <c r="BA2">
+        <v>52</v>
+      </c>
+      <c r="BB2">
+        <v>53</v>
+      </c>
+      <c r="BC2">
+        <v>54</v>
+      </c>
+      <c r="BD2">
+        <v>55</v>
+      </c>
+      <c r="BE2">
+        <v>56</v>
+      </c>
+      <c r="BF2">
+        <v>57</v>
+      </c>
+      <c r="BG2">
+        <v>58</v>
+      </c>
+      <c r="BH2">
+        <v>59</v>
+      </c>
+      <c r="BI2">
+        <v>60</v>
+      </c>
+      <c r="BJ2">
+        <v>61</v>
+      </c>
+      <c r="BK2">
+        <v>62</v>
+      </c>
+      <c r="BL2">
+        <v>63</v>
+      </c>
+      <c r="BM2">
+        <v>64</v>
+      </c>
+      <c r="BN2">
+        <v>65</v>
+      </c>
+      <c r="BO2">
+        <v>66</v>
+      </c>
+      <c r="BP2">
+        <v>67</v>
+      </c>
+      <c r="BQ2">
+        <v>68</v>
+      </c>
+      <c r="BR2">
+        <v>69</v>
+      </c>
+      <c r="BS2">
+        <v>70</v>
+      </c>
+      <c r="BT2">
+        <v>71</v>
+      </c>
+      <c r="BU2">
+        <v>72</v>
+      </c>
+      <c r="BV2">
+        <v>73</v>
+      </c>
+      <c r="BW2">
+        <v>74</v>
+      </c>
+      <c r="BX2">
+        <v>75</v>
+      </c>
+      <c r="BY2">
+        <v>76</v>
+      </c>
+      <c r="BZ2">
+        <v>77</v>
+      </c>
+      <c r="CA2">
+        <v>78</v>
+      </c>
+      <c r="CB2">
+        <v>79</v>
+      </c>
+      <c r="CC2">
+        <v>80</v>
+      </c>
+      <c r="CD2">
+        <v>81</v>
+      </c>
+      <c r="CE2">
+        <v>82</v>
+      </c>
+      <c r="CF2">
+        <v>83</v>
+      </c>
+      <c r="CG2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
+        <v>-3</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AF3">
+        <v>6</v>
+      </c>
+      <c r="AG3">
+        <v>10</v>
+      </c>
+      <c r="AH3">
+        <v>6</v>
+      </c>
+      <c r="AI3">
+        <v>7</v>
+      </c>
+      <c r="AK3">
+        <v>6</v>
+      </c>
+      <c r="AL3">
+        <v>6</v>
+      </c>
+      <c r="AS3">
+        <v>-6</v>
+      </c>
+      <c r="AT3">
+        <v>9</v>
+      </c>
+      <c r="AU3">
+        <v>5</v>
+      </c>
+      <c r="AV3">
+        <v>10</v>
+      </c>
+      <c r="AW3">
+        <v>10</v>
+      </c>
+      <c r="AX3">
+        <v>8</v>
+      </c>
+      <c r="AY3">
+        <v>3</v>
+      </c>
+      <c r="AZ3">
+        <v>2</v>
+      </c>
+      <c r="BA3">
+        <v>4</v>
+      </c>
+      <c r="BB3">
+        <v>7</v>
+      </c>
+      <c r="BC3">
+        <v>8</v>
+      </c>
+      <c r="BD3">
+        <v>9</v>
+      </c>
+      <c r="BE3">
+        <v>2</v>
+      </c>
+      <c r="BF3">
+        <v>7</v>
+      </c>
+      <c r="BG3">
+        <v>9</v>
+      </c>
+      <c r="BH3">
+        <v>5</v>
+      </c>
+      <c r="BI3">
+        <v>6</v>
+      </c>
+      <c r="BJ3">
+        <v>7</v>
+      </c>
+      <c r="BK3">
+        <v>6</v>
+      </c>
+      <c r="BL3">
+        <v>6</v>
+      </c>
+      <c r="BM3">
+        <v>6</v>
+      </c>
+      <c r="BN3">
+        <v>3</v>
+      </c>
+      <c r="BO3">
+        <v>8</v>
+      </c>
+      <c r="BP3">
+        <v>4</v>
+      </c>
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <v>2</v>
+      </c>
+      <c r="BS3">
+        <v>3</v>
+      </c>
+      <c r="BT3">
+        <v>7</v>
+      </c>
+      <c r="BU3">
+        <v>6</v>
+      </c>
+      <c r="BV3">
+        <v>3</v>
+      </c>
+      <c r="BW3">
+        <v>1</v>
+      </c>
+      <c r="BX3">
+        <v>8</v>
+      </c>
+      <c r="BY3">
+        <v>5</v>
+      </c>
+      <c r="BZ3">
+        <v>6</v>
+      </c>
+      <c r="CA3">
+        <v>6</v>
+      </c>
+      <c r="CB3">
+        <v>1</v>
+      </c>
+      <c r="CC3">
+        <v>5</v>
+      </c>
+      <c r="CD3">
+        <v>1</v>
+      </c>
+      <c r="CE3">
+        <v>5</v>
+      </c>
+      <c r="CF3">
+        <v>3</v>
+      </c>
+      <c r="CG3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" t="s">
+        <v>242</v>
+      </c>
+      <c r="N4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O4" t="s">
+        <v>242</v>
+      </c>
+      <c r="P4" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>242</v>
+      </c>
+      <c r="R4" t="s">
+        <v>242</v>
+      </c>
+      <c r="S4" t="s">
+        <v>242</v>
+      </c>
+      <c r="T4" t="s">
+        <v>242</v>
+      </c>
+      <c r="U4" t="s">
+        <v>242</v>
+      </c>
+      <c r="V4" t="s">
+        <v>242</v>
+      </c>
+      <c r="W4" t="s">
+        <v>242</v>
+      </c>
+      <c r="X4" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>